--- a/Result_files/V3_Bids_2020-04-27_2020-05-03.xlsx
+++ b/Result_files/V3_Bids_2020-04-27_2020-05-03.xlsx
@@ -551,16 +551,16 @@
         <v>47.8</v>
       </c>
       <c r="G2" t="n">
-        <v>19.31600000000001</v>
+        <v>19.31599999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.371</v>
+        <v>17.62299999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>168.6046898157454</v>
+        <v>168.6046898157487</v>
       </c>
       <c r="K2" t="n">
         <v>4.39</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1103.180103231982</v>
+        <v>1103.180103231983</v>
       </c>
       <c r="K3" t="n">
         <v>4.12</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1074.649875789156</v>
+        <v>1074.649875789157</v>
       </c>
       <c r="K4" t="n">
         <v>3.73</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.610150541508</v>
+        <v>1025.610150541514</v>
       </c>
       <c r="K5" t="n">
         <v>4.42</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1012.625569463137</v>
+        <v>1025.798119115876</v>
       </c>
       <c r="K6" t="n">
         <v>4.57</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.016</v>
+        <v>13.45699999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>130.3643899984473</v>
+        <v>300.0488074041235</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
@@ -881,22 +881,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F8" t="n">
-        <v>36.5</v>
+        <v>14.6</v>
       </c>
       <c r="G8" t="n">
         <v>7.478999999999985</v>
       </c>
       <c r="H8" t="n">
-        <v>11.3</v>
+        <v>33.2</v>
       </c>
       <c r="I8" t="n">
         <v>6.036000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-549.6978748699992</v>
+        <v>-522.9258453800002</v>
       </c>
       <c r="K8" t="n">
         <v>14.92</v>
@@ -937,22 +937,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F9" t="n">
-        <v>22.9</v>
+        <v>29.1</v>
       </c>
       <c r="G9" t="n">
         <v>7.221999999999923</v>
       </c>
       <c r="H9" t="n">
-        <v>24.9</v>
+        <v>18.6</v>
       </c>
       <c r="I9" t="n">
         <v>6.036000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>-1412.05530214724</v>
+        <v>-533.6426747300005</v>
       </c>
       <c r="K9" t="n">
         <v>30.67</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>6.036000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>-2526.294897294736</v>
+        <v>-1765.455537238111</v>
       </c>
       <c r="K10" t="n">
         <v>33.52</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-353.1280019901406</v>
+        <v>-480.3955887056742</v>
       </c>
       <c r="K11" t="n">
         <v>10.57</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-375.8079885105034</v>
+        <v>-749.9847695853121</v>
       </c>
       <c r="K12" t="n">
         <v>6.77</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-414.4775213925304</v>
+        <v>-650.6108279321103</v>
       </c>
       <c r="K13" t="n">
         <v>6.1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>390.5526027014488</v>
+        <v>-561.6079489277801</v>
       </c>
       <c r="K14" t="n">
         <v>5.5</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-418.7865242301331</v>
+        <v>-338.3538147396013</v>
       </c>
       <c r="K15" t="n">
         <v>4.86</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-421.1959422523632</v>
+        <v>-245.3476288245735</v>
       </c>
       <c r="K16" t="n">
         <v>4.53</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F17" t="n">
         <v>47.8</v>
       </c>
       <c r="G17" t="n">
-        <v>6.135999999999991</v>
+        <v>6.13599999999991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>5.863</v>
       </c>
       <c r="J17" t="n">
-        <v>-508.2848520000001</v>
+        <v>-413.5079477097552</v>
       </c>
       <c r="K17" t="n">
         <v>1.82</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F18" t="n">
         <v>47.8</v>
       </c>
       <c r="G18" t="n">
-        <v>6.135999999999991</v>
+        <v>6.13599999999991</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>5.863</v>
       </c>
       <c r="J18" t="n">
-        <v>-239.8747093417108</v>
+        <v>-457.3193158318144</v>
       </c>
       <c r="K18" t="n">
         <v>4.7</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F19" t="n">
         <v>47.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6.135999999999991</v>
+        <v>6.13599999999991</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>5.863</v>
       </c>
       <c r="J19" t="n">
-        <v>254.343334626803</v>
+        <v>356.5316182638939</v>
       </c>
       <c r="K19" t="n">
         <v>8.59</v>
@@ -1553,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>6.137</v>
       </c>
       <c r="H20" t="n">
-        <v>45.90000000000001</v>
+        <v>41.7</v>
       </c>
       <c r="I20" t="n">
         <v>5.863999999999976</v>
       </c>
       <c r="J20" t="n">
-        <v>-482.6159951965307</v>
+        <v>-484.8034043000006</v>
       </c>
       <c r="K20" t="n">
         <v>18.49999</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.137</v>
+        <v>7.506</v>
       </c>
       <c r="H21" t="n">
         <v>47.8</v>
@@ -1624,7 +1624,7 @@
         <v>5.863999999999976</v>
       </c>
       <c r="J21" t="n">
-        <v>-174.3574242207146</v>
+        <v>-138.2669968787486</v>
       </c>
       <c r="K21" t="n">
         <v>24.57</v>
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.137</v>
+        <v>7.506</v>
       </c>
       <c r="H22" t="n">
         <v>47.8</v>
@@ -1680,7 +1680,7 @@
         <v>5.863999999999976</v>
       </c>
       <c r="J22" t="n">
-        <v>-119.3826089547179</v>
+        <v>-119.3826089547187</v>
       </c>
       <c r="K22" t="n">
         <v>25.540001</v>
@@ -1736,7 +1736,7 @@
         <v>9.447000000000003</v>
       </c>
       <c r="J23" t="n">
-        <v>-319.1389020937156</v>
+        <v>-319.1389020937171</v>
       </c>
       <c r="K23" t="n">
         <v>22.190001</v>
@@ -1792,7 +1792,7 @@
         <v>9.447000000000003</v>
       </c>
       <c r="J24" t="n">
-        <v>-345.4683496372494</v>
+        <v>-345.4683496372496</v>
       </c>
       <c r="K24" t="n">
         <v>20.1</v>
@@ -1848,7 +1848,7 @@
         <v>14.0209999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>-599.9197469735914</v>
+        <v>-599.919746973593</v>
       </c>
       <c r="K25" t="n">
         <v>19</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.876</v>
+        <v>18.824</v>
       </c>
       <c r="J26" t="n">
-        <v>577.903420385509</v>
+        <v>577.9034203855083</v>
       </c>
       <c r="K26" t="n">
         <v>21.700001</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.17887394604328</v>
+        <v>70.17887394604323</v>
       </c>
       <c r="K27" t="n">
         <v>19.35</v>
@@ -1998,7 +1998,7 @@
         <v>169.63</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E28" t="n">
         <v>0.13</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1179188653694</v>
+        <v>67.69055223189032</v>
       </c>
       <c r="K28" t="n">
         <v>20.23</v>
@@ -2110,7 +2110,7 @@
         <v>169.63</v>
       </c>
       <c r="D30" t="n">
-        <v>47.8</v>
+        <v>30.4</v>
       </c>
       <c r="E30" t="n">
         <v>0.13</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1437.397933181868</v>
+        <v>936.780979744772</v>
       </c>
       <c r="K30" t="n">
         <v>21.700001</v>
@@ -2175,16 +2175,16 @@
         <v>47.8</v>
       </c>
       <c r="G31" t="n">
-        <v>15.522</v>
+        <v>15.52199999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.706</v>
+        <v>14.86</v>
       </c>
       <c r="J31" t="n">
-        <v>659.3075145671804</v>
+        <v>593.4583916281161</v>
       </c>
       <c r="K31" t="n">
         <v>20.82</v>
@@ -2228,19 +2228,19 @@
         <v>0.27</v>
       </c>
       <c r="F32" t="n">
-        <v>9.4</v>
+        <v>31.2</v>
       </c>
       <c r="G32" t="n">
         <v>7.800000000000011</v>
       </c>
       <c r="H32" t="n">
-        <v>38.40000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I32" t="n">
         <v>6.116999999999905</v>
       </c>
       <c r="J32" t="n">
-        <v>-524.5796279000007</v>
+        <v>-556.8319888800009</v>
       </c>
       <c r="K32" t="n">
         <v>18.8</v>
@@ -2281,22 +2281,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="F33" t="n">
-        <v>38.6</v>
+        <v>47.8</v>
       </c>
       <c r="G33" t="n">
         <v>7.800000000000011</v>
       </c>
       <c r="H33" t="n">
-        <v>9.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.116999999999905</v>
+        <v>8.148</v>
       </c>
       <c r="J33" t="n">
-        <v>-565.0013899999997</v>
+        <v>-807.6619362083082</v>
       </c>
       <c r="K33" t="n">
         <v>17.43</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="F34" t="n">
         <v>47.8</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.123</v>
+        <v>8.148</v>
       </c>
       <c r="J34" t="n">
-        <v>-866.0812531157241</v>
+        <v>-1148.657410285653</v>
       </c>
       <c r="K34" t="n">
         <v>15.63</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1679.053568413129</v>
+        <v>-704.0083397815805</v>
       </c>
       <c r="K35" t="n">
         <v>15.1</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-1306.093219547773</v>
+        <v>-1167.929564355065</v>
       </c>
       <c r="K36" t="n">
         <v>13</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1605.940858972479</v>
+        <v>-918.9227588284597</v>
       </c>
       <c r="K37" t="n">
         <v>14.38</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1312.049384816518</v>
+        <v>-1226.353032686691</v>
       </c>
       <c r="K38" t="n">
         <v>15</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-779.7049176343719</v>
+        <v>-637.5440476230538</v>
       </c>
       <c r="K39" t="n">
         <v>11.9</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-396.4221065823058</v>
+        <v>-297.2686402578904</v>
       </c>
       <c r="K40" t="n">
         <v>5.56</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="F41" t="n">
         <v>47.8</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.947</v>
+        <v>7.164</v>
       </c>
       <c r="J41" t="n">
-        <v>-628.8590683624985</v>
+        <v>-563.4810284383284</v>
       </c>
       <c r="K41" t="n">
         <v>6.93</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.37</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F42" t="n">
         <v>47.8</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.947</v>
+        <v>7.164</v>
       </c>
       <c r="J42" t="n">
-        <v>-628.7142723801661</v>
+        <v>-236.8799091940373</v>
       </c>
       <c r="K42" t="n">
         <v>12.42</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.37</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F43" t="n">
         <v>47.8</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.947</v>
+        <v>7.164</v>
       </c>
       <c r="J43" t="n">
-        <v>-338.5112394254904</v>
+        <v>225.6874267214374</v>
       </c>
       <c r="K43" t="n">
         <v>15.75</v>
@@ -2897,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F44" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.467999999999904</v>
+        <v>7.737</v>
       </c>
       <c r="H44" t="n">
-        <v>38.5</v>
+        <v>47.8</v>
       </c>
       <c r="I44" t="n">
         <v>5.942000000000007</v>
       </c>
       <c r="J44" t="n">
-        <v>-507.5141382894533</v>
+        <v>-474.7903125108461</v>
       </c>
       <c r="K44" t="n">
         <v>23.65</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>5.942000000000007</v>
       </c>
       <c r="J45" t="n">
-        <v>-333.9562162617436</v>
+        <v>-148.7176352494348</v>
       </c>
       <c r="K45" t="n">
         <v>26.969999</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>5.942000000000007</v>
       </c>
       <c r="J46" t="n">
-        <v>-125.0627952976123</v>
+        <v>-125.0627952976154</v>
       </c>
       <c r="K46" t="n">
         <v>30.780001</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>10.968</v>
+        <v>11.691</v>
       </c>
       <c r="H47" t="n">
         <v>47.8</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.96799999999999</v>
+        <v>11.691</v>
       </c>
       <c r="H48" t="n">
         <v>47.8</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>15.497</v>
+        <v>16.003</v>
       </c>
       <c r="H49" t="n">
         <v>47.8</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>115.0976968656319</v>
+        <v>115.0976968656309</v>
       </c>
       <c r="K51" t="n">
         <v>20</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>103.6149684984848</v>
+        <v>103.6149684984859</v>
       </c>
       <c r="K52" t="n">
         <v>18.59</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1500.078111786886</v>
+        <v>1500.078111786885</v>
       </c>
       <c r="K53" t="n">
         <v>17.940001</v>
@@ -3454,7 +3454,7 @@
         <v>118.96</v>
       </c>
       <c r="D54" t="n">
-        <v>5.4</v>
+        <v>26.1</v>
       </c>
       <c r="E54" t="n">
         <v>0.13</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>213.1322811925526</v>
+        <v>889.3097903996392</v>
       </c>
       <c r="K54" t="n">
         <v>17.98</v>
@@ -3528,7 +3528,7 @@
         <v>14.016</v>
       </c>
       <c r="J55" t="n">
-        <v>473.9282257870134</v>
+        <v>771.2362564983086</v>
       </c>
       <c r="K55" t="n">
         <v>18.450001</v>
@@ -3572,19 +3572,19 @@
         <v>0.27</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="G56" t="n">
         <v>7.766999999999996</v>
       </c>
       <c r="H56" t="n">
-        <v>35.8</v>
+        <v>43.2</v>
       </c>
       <c r="I56" t="n">
         <v>6.036000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-506.3252029918086</v>
+        <v>-496.9599098993851</v>
       </c>
       <c r="K56" t="n">
         <v>21.139999</v>
@@ -3625,22 +3625,22 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.33</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F57" t="n">
-        <v>19.6</v>
+        <v>47.8</v>
       </c>
       <c r="G57" t="n">
         <v>7.766999999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>6.036000000000001</v>
+        <v>6.906</v>
       </c>
       <c r="J57" t="n">
-        <v>-510.5832469400001</v>
+        <v>-630.8566447622227</v>
       </c>
       <c r="K57" t="n">
         <v>23.24</v>
@@ -3681,22 +3681,22 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.33</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F58" t="n">
-        <v>33</v>
+        <v>47.8</v>
       </c>
       <c r="G58" t="n">
-        <v>7.767000000000003</v>
+        <v>7.766999999999996</v>
       </c>
       <c r="H58" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6.036000000000008</v>
+        <v>6.906</v>
       </c>
       <c r="J58" t="n">
-        <v>-526.9324663399996</v>
+        <v>-1183.447223113664</v>
       </c>
       <c r="K58" t="n">
         <v>23.870001</v>
@@ -3734,7 +3734,7 @@
         <v>118.96</v>
       </c>
       <c r="D59" t="n">
-        <v>31.4</v>
+        <v>47.8</v>
       </c>
       <c r="E59" t="n">
         <v>0.2699999999999818</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-179.8211281999997</v>
+        <v>-910.524987792451</v>
       </c>
       <c r="K59" t="n">
         <v>24.33</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>891.0253252300228</v>
+        <v>-6.263363449718876</v>
       </c>
       <c r="K60" t="n">
         <v>17.299999</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>746.131976976724</v>
+        <v>-753.6779513019391</v>
       </c>
       <c r="K61" t="n">
         <v>16.629999</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>556.5444596010195</v>
+        <v>-728.7008494196962</v>
       </c>
       <c r="K62" t="n">
         <v>16.799999</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>473.2294869434751</v>
+        <v>-81.79835726812946</v>
       </c>
       <c r="K63" t="n">
         <v>12.84</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-132.2625099551661</v>
+        <v>-188.2715921753656</v>
       </c>
       <c r="K64" t="n">
         <v>12.32</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.33</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F65" t="n">
         <v>47.8</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>5.863</v>
+        <v>6.565</v>
       </c>
       <c r="J65" t="n">
-        <v>34.86914777709448</v>
+        <v>-630.3709623500719</v>
       </c>
       <c r="K65" t="n">
         <v>12.77</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>6.080999999999986</v>
+        <v>6.565</v>
       </c>
       <c r="J66" t="n">
-        <v>119.676787400288</v>
+        <v>-554.2244131849212</v>
       </c>
       <c r="K66" t="n">
         <v>15.5</v>
@@ -4191,16 +4191,16 @@
         <v>47.8</v>
       </c>
       <c r="G67" t="n">
-        <v>7.436000000000011</v>
+        <v>7.435999999999979</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>5.863</v>
+        <v>6.565</v>
       </c>
       <c r="J67" t="n">
-        <v>609.7224535392987</v>
+        <v>529.5365066340537</v>
       </c>
       <c r="K67" t="n">
         <v>24.129999</v>
@@ -4244,19 +4244,19 @@
         <v>0.27</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>7.506</v>
+        <v>6.738999999999976</v>
       </c>
       <c r="H68" t="n">
-        <v>47.8</v>
+        <v>46.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.863999999999999</v>
+        <v>5.863999999999976</v>
       </c>
       <c r="J68" t="n">
-        <v>-391.850999443654</v>
+        <v>-465.8769305199995</v>
       </c>
       <c r="K68" t="n">
         <v>25.99</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>7.437000000000012</v>
+        <v>7.506</v>
       </c>
       <c r="H69" t="n">
         <v>47.8</v>
@@ -4312,7 +4312,7 @@
         <v>5.863999999999976</v>
       </c>
       <c r="J69" t="n">
-        <v>-152.9284074632075</v>
+        <v>-111.3614482068293</v>
       </c>
       <c r="K69" t="n">
         <v>29.42</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>6.738999999999976</v>
+        <v>7.506</v>
       </c>
       <c r="H70" t="n">
         <v>47.8</v>
@@ -4477,7 +4477,7 @@
         <v>47.8</v>
       </c>
       <c r="I72" t="n">
-        <v>9.049000000000001</v>
+        <v>9.048999999999921</v>
       </c>
       <c r="J72" t="n">
         <v>-318.4281865926482</v>
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>15.49299999999998</v>
+        <v>15.616</v>
       </c>
       <c r="H73" t="n">
         <v>47.8</v>
       </c>
       <c r="I73" t="n">
-        <v>13.51900000000002</v>
+        <v>13.51900000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>-560.7096737213462</v>
+        <v>-560.7096737213461</v>
       </c>
       <c r="K73" t="n">
         <v>18.379999</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>17.793</v>
+        <v>17.859</v>
       </c>
       <c r="J74" t="n">
         <v>154.1473467051128</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1008.494742947907</v>
+        <v>1008.494742947908</v>
       </c>
       <c r="K77" t="n">
         <v>4.42</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>13.637</v>
+        <v>13.706</v>
       </c>
       <c r="J79" t="n">
-        <v>378.6405436708881</v>
+        <v>420.3341488625394</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4913,22 +4913,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="F80" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>7.230999999999995</v>
+        <v>7.766999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>39.40000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="I80" t="n">
         <v>6.062000000000012</v>
       </c>
       <c r="J80" t="n">
-        <v>-487.7326560800001</v>
+        <v>-242.0080603930987</v>
       </c>
       <c r="K80" t="n">
         <v>14.92</v>
@@ -4969,22 +4969,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F81" t="n">
-        <v>15.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>6.97399999999999</v>
+        <v>7.767</v>
       </c>
       <c r="H81" t="n">
-        <v>32.30000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
         <v>6.062000000000012</v>
       </c>
       <c r="J81" t="n">
-        <v>-492.4784758599999</v>
+        <v>-318.8443660835999</v>
       </c>
       <c r="K81" t="n">
         <v>30.67</v>
@@ -5025,22 +5025,22 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F82" t="n">
-        <v>16.59999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>6.97399999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>31.20000000000001</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
         <v>6.062000000000012</v>
       </c>
       <c r="J82" t="n">
-        <v>-493.8218473400002</v>
+        <v>-490.4559134314387</v>
       </c>
       <c r="K82" t="n">
         <v>33.52</v>
@@ -5078,7 +5078,7 @@
         <v>153.68</v>
       </c>
       <c r="D83" t="n">
-        <v>29.4</v>
+        <v>45.5</v>
       </c>
       <c r="E83" t="n">
         <v>0.27</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-176.2418578000001</v>
+        <v>-181.5280835000002</v>
       </c>
       <c r="K83" t="n">
         <v>10.57</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>301.1174337109541</v>
+        <v>-205.4111289144836</v>
       </c>
       <c r="K84" t="n">
         <v>6.77</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>402.456059533514</v>
+        <v>-207.8508720862545</v>
       </c>
       <c r="K85" t="n">
         <v>6.1</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>380.3145185800054</v>
+        <v>256.3289999883679</v>
       </c>
       <c r="K86" t="n">
         <v>5.5</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>101.402960755379</v>
+        <v>-44.28142125202502</v>
       </c>
       <c r="K87" t="n">
         <v>4.86</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>508.8905114589756</v>
+        <v>-187.9864491236811</v>
       </c>
       <c r="K88" t="n">
         <v>4.53</v>
@@ -5417,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F89" t="n">
         <v>47.8</v>
       </c>
       <c r="G89" t="n">
-        <v>6.135999999999982</v>
+        <v>6.13599999999991</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>6.08</v>
       </c>
       <c r="J89" t="n">
-        <v>274.4617884819262</v>
+        <v>31.78427892617829</v>
       </c>
       <c r="K89" t="n">
         <v>1.82</v>
@@ -5473,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F90" t="n">
         <v>47.8</v>
       </c>
       <c r="G90" t="n">
-        <v>6.135999999999982</v>
+        <v>6.13599999999991</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>6.08</v>
       </c>
       <c r="J90" t="n">
-        <v>115.4000951968829</v>
+        <v>319.2726636884385</v>
       </c>
       <c r="K90" t="n">
         <v>4.7</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F91" t="n">
         <v>47.8</v>
@@ -5544,7 +5544,7 @@
         <v>6.08</v>
       </c>
       <c r="J91" t="n">
-        <v>555.1042377684281</v>
+        <v>795.4544822462288</v>
       </c>
       <c r="K91" t="n">
         <v>8.59</v>
@@ -5585,22 +5585,22 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F92" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>6.137</v>
+        <v>7.437</v>
       </c>
       <c r="H92" t="n">
-        <v>35.7</v>
+        <v>47.8</v>
       </c>
       <c r="I92" t="n">
         <v>5.88900000000001</v>
       </c>
       <c r="J92" t="n">
-        <v>-464.82490276</v>
+        <v>-207.14098386777</v>
       </c>
       <c r="K92" t="n">
         <v>18.49999</v>
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>6.479000000000008</v>
+        <v>7.437</v>
       </c>
       <c r="H93" t="n">
         <v>47.8</v>
@@ -5656,7 +5656,7 @@
         <v>5.88900000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>-207.7176812077299</v>
+        <v>-84.79859657118934</v>
       </c>
       <c r="K93" t="n">
         <v>24.57</v>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>6.479000000000008</v>
+        <v>7.437</v>
       </c>
       <c r="H94" t="n">
         <v>47.8</v>
@@ -5753,19 +5753,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>10.47599999999999</v>
+        <v>11.039</v>
       </c>
       <c r="H95" t="n">
         <v>47.8</v>
       </c>
       <c r="I95" t="n">
-        <v>9.031000000000013</v>
+        <v>9.031000000000006</v>
       </c>
       <c r="J95" t="n">
         <v>-266.627195569232</v>
@@ -5809,22 +5809,22 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>10.9</v>
+        <v>11.039</v>
       </c>
       <c r="H96" t="n">
         <v>47.8</v>
       </c>
       <c r="I96" t="n">
-        <v>9.031000000000013</v>
+        <v>9.031000000000006</v>
       </c>
       <c r="J96" t="n">
-        <v>-301.2015787720165</v>
+        <v>-301.2015787720175</v>
       </c>
       <c r="K96" t="n">
         <v>20.1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F97" t="n">
         <v>47.8</v>
@@ -5877,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>14.208</v>
+        <v>13.518</v>
       </c>
       <c r="J97" t="n">
-        <v>847.6950877095147</v>
+        <v>847.6950877095156</v>
       </c>
       <c r="K97" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>93.11451532743273</v>
+        <v>93.11451532743369</v>
       </c>
       <c r="K99" t="n">
         <v>22.99</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1482.692729314564</v>
+        <v>1482.692729314563</v>
       </c>
       <c r="K100" t="n">
         <v>21.1</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1395.35647098837</v>
+        <v>1398.391102241466</v>
       </c>
       <c r="K102" t="n">
         <v>19.799999</v>
@@ -6216,7 +6216,7 @@
         <v>14.016</v>
       </c>
       <c r="J103" t="n">
-        <v>595.3556746188651</v>
+        <v>717.499141373964</v>
       </c>
       <c r="K103" t="n">
         <v>19.6</v>
@@ -6257,22 +6257,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F104" t="n">
-        <v>11.4</v>
+        <v>2.7</v>
       </c>
       <c r="G104" t="n">
         <v>7.188999999999908</v>
       </c>
       <c r="H104" t="n">
-        <v>36.4</v>
+        <v>45.1</v>
       </c>
       <c r="I104" t="n">
         <v>6.050999999999988</v>
       </c>
       <c r="J104" t="n">
-        <v>-501.522661316471</v>
+        <v>-493.5997761299997</v>
       </c>
       <c r="K104" t="n">
         <v>21.790001</v>
@@ -6313,22 +6313,22 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F105" t="n">
-        <v>47.8</v>
+        <v>23.5</v>
       </c>
       <c r="G105" t="n">
         <v>6.93199999999996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="I105" t="n">
         <v>6.050999999999988</v>
       </c>
       <c r="J105" t="n">
-        <v>-575.4586258848939</v>
+        <v>-508.18732412</v>
       </c>
       <c r="K105" t="n">
         <v>22.9</v>
@@ -6369,22 +6369,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F106" t="n">
-        <v>47.8</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
         <v>6.93199999999996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
         <v>6.050999999999988</v>
       </c>
       <c r="J106" t="n">
-        <v>-687.5201790169272</v>
+        <v>-528.9317872200008</v>
       </c>
       <c r="K106" t="n">
         <v>21.91</v>
@@ -6422,7 +6422,7 @@
         <v>166.98</v>
       </c>
       <c r="D107" t="n">
-        <v>47.8</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.27</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-858.2691214683373</v>
+        <v>-189.2621405999999</v>
       </c>
       <c r="K107" t="n">
         <v>19</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-415.3951092082783</v>
+        <v>-389.9637502566841</v>
       </c>
       <c r="K108" t="n">
         <v>14.98</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-397.1626850500338</v>
+        <v>-343.6197979105348</v>
       </c>
       <c r="K109" t="n">
         <v>13.6</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-576.6887976844438</v>
+        <v>337.5618877390469</v>
       </c>
       <c r="K110" t="n">
         <v>14.28</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>50.08368379947569</v>
+        <v>533.9272381759663</v>
       </c>
       <c r="K111" t="n">
         <v>10.82</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-314.4525683516501</v>
+        <v>332.0494254885611</v>
       </c>
       <c r="K112" t="n">
         <v>10</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F113" t="n">
         <v>47.8</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>5.941</v>
+        <v>6.565</v>
       </c>
       <c r="J113" t="n">
-        <v>-541.0493546299679</v>
+        <v>-143.0654890415848</v>
       </c>
       <c r="K113" t="n">
         <v>9.880000000000001</v>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F114" t="n">
         <v>47.8</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>5.877999999999986</v>
+        <v>6.565</v>
       </c>
       <c r="J114" t="n">
-        <v>-548.1267776131248</v>
+        <v>456.662828722803</v>
       </c>
       <c r="K114" t="n">
         <v>15.33</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F115" t="n">
         <v>47.8</v>
@@ -6885,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>5.877999999999986</v>
+        <v>6.565</v>
       </c>
       <c r="J115" t="n">
-        <v>-545.6792871862438</v>
+        <v>765.9638113058883</v>
       </c>
       <c r="K115" t="n">
         <v>20.530001</v>
@@ -6929,22 +6929,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4</v>
+        <v>0.3699999999998909</v>
       </c>
       <c r="F116" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>6.276999999999987</v>
+        <v>6.278</v>
       </c>
       <c r="H116" t="n">
-        <v>32.5</v>
+        <v>47.8</v>
       </c>
       <c r="I116" t="n">
         <v>5.878999999999962</v>
       </c>
       <c r="J116" t="n">
-        <v>-481.4349628399996</v>
+        <v>-292.8020394655889</v>
       </c>
       <c r="K116" t="n">
         <v>26.280001</v>
@@ -6985,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4</v>
+        <v>0.3299999999999272</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>6.278</v>
+        <v>6.277999999999998</v>
       </c>
       <c r="H117" t="n">
         <v>47.8</v>
@@ -7000,7 +7000,7 @@
         <v>5.878999999999962</v>
       </c>
       <c r="J117" t="n">
-        <v>-258.7523830477751</v>
+        <v>-116.5105425634659</v>
       </c>
       <c r="K117" t="n">
         <v>35.91</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>9.471000000000004</v>
       </c>
       <c r="J119" t="n">
-        <v>-334.1137146536568</v>
+        <v>-334.1137146536587</v>
       </c>
       <c r="K119" t="n">
         <v>23.559999</v>
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G120" t="n">
-        <v>10.968</v>
+        <v>10.363</v>
       </c>
       <c r="H120" t="n">
-        <v>47.8</v>
+        <v>24.8</v>
       </c>
       <c r="I120" t="n">
         <v>9.471000000000004</v>
       </c>
       <c r="J120" t="n">
-        <v>-357.3893354174394</v>
+        <v>359.9864128170121</v>
       </c>
       <c r="K120" t="n">
         <v>21.540001</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F121" t="n">
         <v>47.8</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>14.656</v>
+        <v>14.836</v>
       </c>
       <c r="J121" t="n">
         <v>741.8698507221306</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>17.70099999999996</v>
+        <v>18.419</v>
       </c>
       <c r="J122" t="n">
         <v>582.9572084483807</v>
@@ -7430,7 +7430,7 @@
         <v>144</v>
       </c>
       <c r="D125" t="n">
-        <v>21.7</v>
+        <v>47.8</v>
       </c>
       <c r="E125" t="n">
         <v>0.13</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>764.1652297344765</v>
+        <v>1560.6780994646</v>
       </c>
       <c r="K125" t="n">
         <v>9.34</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>68.01473055295668</v>
+        <v>118.4830316268294</v>
       </c>
       <c r="K126" t="n">
         <v>14.13</v>
@@ -7548,19 +7548,19 @@
         <v>0.13</v>
       </c>
       <c r="F127" t="n">
-        <v>2.4</v>
+        <v>47.8</v>
       </c>
       <c r="G127" t="n">
         <v>15.47800000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>45.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>13.50299999999999</v>
+        <v>14.016</v>
       </c>
       <c r="J127" t="n">
-        <v>-833.0950956071982</v>
+        <v>817.4664547483463</v>
       </c>
       <c r="K127" t="n">
         <v>14.3</v>
@@ -7601,22 +7601,22 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F128" t="n">
-        <v>32.5</v>
+        <v>1.9</v>
       </c>
       <c r="G128" t="n">
         <v>7.766999999999996</v>
       </c>
       <c r="H128" t="n">
-        <v>15.3</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="I128" t="n">
         <v>6.88900000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>-528.8707723999997</v>
+        <v>-503.9500566240952</v>
       </c>
       <c r="K128" t="n">
         <v>14.88</v>
@@ -7657,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F129" t="n">
-        <v>46.79999999999999</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>7.766999999999996</v>
       </c>
       <c r="H129" t="n">
-        <v>1.000000000000011</v>
+        <v>47.8</v>
       </c>
       <c r="I129" t="n">
         <v>6.632000000000005</v>
       </c>
       <c r="J129" t="n">
-        <v>-540.0697361000002</v>
+        <v>-421.5376803687565</v>
       </c>
       <c r="K129" t="n">
         <v>15.9</v>
@@ -7713,22 +7713,22 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F130" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>7.766999999999996</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
-        <v>6.906</v>
+        <v>6.632000000000005</v>
       </c>
       <c r="J130" t="n">
-        <v>-1367.933251441824</v>
+        <v>-425.3056930136845</v>
       </c>
       <c r="K130" t="n">
         <v>18.700001</v>
@@ -7766,10 +7766,10 @@
         <v>144</v>
       </c>
       <c r="D131" t="n">
-        <v>12.7</v>
+        <v>47.8</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2699999999999818</v>
+        <v>0.27</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-172.5042127000002</v>
+        <v>-627.5139365722571</v>
       </c>
       <c r="K131" t="n">
         <v>16.629999</v>
@@ -7822,7 +7822,7 @@
         <v>144</v>
       </c>
       <c r="D132" t="n">
-        <v>16.2</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.2699999999999818</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-173.8253432</v>
+        <v>-1055.959231479928</v>
       </c>
       <c r="K132" t="n">
         <v>16.30001</v>
@@ -7878,7 +7878,7 @@
         <v>144</v>
       </c>
       <c r="D133" t="n">
-        <v>47.8</v>
+        <v>45</v>
       </c>
       <c r="E133" t="n">
         <v>0.27</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-1260.234795515963</v>
+        <v>-180.9414655748858</v>
       </c>
       <c r="K133" t="n">
         <v>16.299999</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-1116.38234801314</v>
+        <v>-861.5029626836392</v>
       </c>
       <c r="K134" t="n">
         <v>15.8</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>-986.4373796983509</v>
+        <v>-814.6777905718353</v>
       </c>
       <c r="K135" t="n">
         <v>12.25</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>-465.0862540373113</v>
+        <v>605.6846968110166</v>
       </c>
       <c r="K136" t="n">
         <v>7.76</v>
@@ -8120,7 +8120,7 @@
         <v>6.565</v>
       </c>
       <c r="J137" t="n">
-        <v>-904.2490586982681</v>
+        <v>-569.0168686606494</v>
       </c>
       <c r="K137" t="n">
         <v>7.99</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F138" t="n">
         <v>47.8</v>
@@ -8176,7 +8176,7 @@
         <v>6.565</v>
       </c>
       <c r="J138" t="n">
-        <v>-621.5317089764203</v>
+        <v>302.1389984013371</v>
       </c>
       <c r="K138" t="n">
         <v>10.7</v>
@@ -8217,22 +8217,22 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F139" t="n">
-        <v>47.8</v>
+        <v>30.1</v>
       </c>
       <c r="G139" t="n">
         <v>7.435999999999979</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="I139" t="n">
-        <v>6.565</v>
+        <v>6.043000000000006</v>
       </c>
       <c r="J139" t="n">
-        <v>-571.7759242451232</v>
+        <v>-326.0520230402921</v>
       </c>
       <c r="K139" t="n">
         <v>16.620001</v>
@@ -8273,22 +8273,22 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F140" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>7.437000000000012</v>
       </c>
       <c r="H140" t="n">
-        <v>34.3</v>
+        <v>47.8</v>
       </c>
       <c r="I140" t="n">
         <v>6.043999999999926</v>
       </c>
       <c r="J140" t="n">
-        <v>-483.6888165700001</v>
+        <v>-273.2386740527174</v>
       </c>
       <c r="K140" t="n">
         <v>23.51</v>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8341,10 +8341,10 @@
         <v>47.8</v>
       </c>
       <c r="I141" t="n">
-        <v>6.044000000000006</v>
+        <v>6.043999999999926</v>
       </c>
       <c r="J141" t="n">
-        <v>-319.7390381107673</v>
+        <v>-113.435133907937</v>
       </c>
       <c r="K141" t="n">
         <v>26.700001</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>6.043999999999926</v>
       </c>
       <c r="J142" t="n">
-        <v>-92.71639960823543</v>
+        <v>-92.71639960823961</v>
       </c>
       <c r="K142" t="n">
         <v>32</v>
@@ -8453,10 +8453,10 @@
         <v>47.8</v>
       </c>
       <c r="I143" t="n">
-        <v>8.99299999999999</v>
+        <v>8.992999999999995</v>
       </c>
       <c r="J143" t="n">
-        <v>-277.9654063583414</v>
+        <v>-277.9654063583415</v>
       </c>
       <c r="K143" t="n">
         <v>29.77</v>
@@ -8509,7 +8509,7 @@
         <v>47.8</v>
       </c>
       <c r="I144" t="n">
-        <v>8.99299999999999</v>
+        <v>8.992999999999995</v>
       </c>
       <c r="J144" t="n">
         <v>-297.3686371797223</v>
@@ -8565,7 +8565,7 @@
         <v>47.8</v>
       </c>
       <c r="I145" t="n">
-        <v>13.43600000000002</v>
+        <v>13.43599999999998</v>
       </c>
       <c r="J145" t="n">
         <v>-543.8430575979312</v>
@@ -8624,7 +8624,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="J146" t="n">
-        <v>-721.6290987495206</v>
+        <v>-721.6290987495225</v>
       </c>
       <c r="K146" t="n">
         <v>23.299999</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>123.4872841932635</v>
+        <v>123.0856060736766</v>
       </c>
       <c r="K147" t="n">
         <v>19.8</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1500.290696060658</v>
+        <v>1500.290696060659</v>
       </c>
       <c r="K148" t="n">
         <v>10.98</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>63.93578048428908</v>
+        <v>134.7852789131376</v>
       </c>
       <c r="K150" t="n">
         <v>19.30001</v>
@@ -8892,19 +8892,19 @@
         <v>0.13</v>
       </c>
       <c r="F151" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>15.47800000000001</v>
+        <v>15.721</v>
       </c>
       <c r="H151" t="n">
-        <v>43.5</v>
+        <v>47.8</v>
       </c>
       <c r="I151" t="n">
         <v>13.51599999999991</v>
       </c>
       <c r="J151" t="n">
-        <v>-832.07441724</v>
+        <v>-707.9064387981059</v>
       </c>
       <c r="K151" t="n">
         <v>21.469999</v>
@@ -8945,22 +8945,22 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="F152" t="n">
-        <v>15.4</v>
+        <v>26.5</v>
       </c>
       <c r="G152" t="n">
-        <v>7.767000000000005</v>
+        <v>7.766999999999996</v>
       </c>
       <c r="H152" t="n">
-        <v>32.4</v>
+        <v>21.3</v>
       </c>
       <c r="I152" t="n">
         <v>6.062000000000012</v>
       </c>
       <c r="J152" t="n">
-        <v>-510.9688549199999</v>
+        <v>-524.9106003299997</v>
       </c>
       <c r="K152" t="n">
         <v>26.6</v>
@@ -9001,22 +9001,22 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F153" t="n">
-        <v>33</v>
+        <v>28.4</v>
       </c>
       <c r="G153" t="n">
-        <v>7.766999999999999</v>
+        <v>7.766999999999996</v>
       </c>
       <c r="H153" t="n">
-        <v>14.8</v>
+        <v>19.4</v>
       </c>
       <c r="I153" t="n">
-        <v>6.062000000000018</v>
+        <v>6.062000000000012</v>
       </c>
       <c r="J153" t="n">
-        <v>-528.9287331642525</v>
+        <v>-522.6499518199998</v>
       </c>
       <c r="K153" t="n">
         <v>35.52</v>
@@ -9057,22 +9057,22 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F154" t="n">
-        <v>47.8</v>
+        <v>43.8</v>
       </c>
       <c r="G154" t="n">
-        <v>7.766999999999999</v>
+        <v>7.766999999999996</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I154" t="n">
         <v>6.062000000000012</v>
       </c>
       <c r="J154" t="n">
-        <v>-1892.986129051464</v>
+        <v>-543.3654404600004</v>
       </c>
       <c r="K154" t="n">
         <v>30.77</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-2359.778634483454</v>
+        <v>-456.3925303289154</v>
       </c>
       <c r="K155" t="n">
         <v>21.84</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-2567.013187675626</v>
+        <v>-1725.388732248114</v>
       </c>
       <c r="K156" t="n">
         <v>20</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-2371.187703635464</v>
+        <v>-612.1687583157143</v>
       </c>
       <c r="K157" t="n">
         <v>18.450001</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-1747.88323395966</v>
+        <v>-1423.861310222926</v>
       </c>
       <c r="K158" t="n">
         <v>11.98</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-758.6745510080033</v>
+        <v>-751.2172342173177</v>
       </c>
       <c r="K159" t="n">
         <v>5.2</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>-690.6076155115467</v>
+        <v>-436.2080748642905</v>
       </c>
       <c r="K160" t="n">
         <v>5.12</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F161" t="n">
         <v>47.8</v>
@@ -9464,7 +9464,7 @@
         <v>6.289</v>
       </c>
       <c r="J161" t="n">
-        <v>-845.4723356765559</v>
+        <v>-780.4892675166525</v>
       </c>
       <c r="K161" t="n">
         <v>4.92</v>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.37</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F162" t="n">
         <v>47.8</v>
@@ -9520,7 +9520,7 @@
         <v>6.289</v>
       </c>
       <c r="J162" t="n">
-        <v>-860.1978687946719</v>
+        <v>-669.9376702534477</v>
       </c>
       <c r="K162" t="n">
         <v>4.8</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.37</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F163" t="n">
         <v>47.8</v>
@@ -9576,7 +9576,7 @@
         <v>6.289</v>
       </c>
       <c r="J163" t="n">
-        <v>-594.4566442739717</v>
+        <v>-51.20791982022817</v>
       </c>
       <c r="K163" t="n">
         <v>4.8</v>
@@ -9617,22 +9617,22 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F164" t="n">
-        <v>26.2</v>
+        <v>41.6</v>
       </c>
       <c r="G164" t="n">
         <v>7.437000000000012</v>
       </c>
       <c r="H164" t="n">
-        <v>21.6</v>
+        <v>6.2</v>
       </c>
       <c r="I164" t="n">
         <v>5.88900000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>-111.1299858449127</v>
+        <v>872.3724777338701</v>
       </c>
       <c r="K164" t="n">
         <v>4.86</v>
@@ -9673,22 +9673,22 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>7.506</v>
+        <v>7.703</v>
       </c>
       <c r="H165" t="n">
         <v>47.8</v>
       </c>
       <c r="I165" t="n">
-        <v>5.889000000000001</v>
+        <v>5.88900000000001</v>
       </c>
       <c r="J165" t="n">
-        <v>-354.5395693755596</v>
+        <v>-142.2864858055302</v>
       </c>
       <c r="K165" t="n">
         <v>4.91</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>47.8</v>
       </c>
       <c r="I166" t="n">
-        <v>5.889000000000001</v>
+        <v>5.88900000000001</v>
       </c>
       <c r="J166" t="n">
         <v>-81.98946252204036</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.27</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -9853,10 +9853,10 @@
         <v>47.8</v>
       </c>
       <c r="I168" t="n">
-        <v>9.048000000000012</v>
+        <v>9.048000000000002</v>
       </c>
       <c r="J168" t="n">
-        <v>-278.9888963430211</v>
+        <v>-278.9888963430212</v>
       </c>
       <c r="K168" t="n">
         <v>22.450001</v>
@@ -9903,16 +9903,16 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>15.497</v>
+        <v>16.109</v>
       </c>
       <c r="H169" t="n">
         <v>47.8</v>
       </c>
       <c r="I169" t="n">
-        <v>13.51800000000001</v>
+        <v>13.51799999999997</v>
       </c>
       <c r="J169" t="n">
-        <v>-534.7260667745167</v>
+        <v>-534.7260667745168</v>
       </c>
       <c r="K169" t="n">
         <v>17.42</v>
